--- a/honeypot_data_sheets/attacker_reports_20251022.xlsx
+++ b/honeypot_data_sheets/attacker_reports_20251022.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -763,145 +763,670 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>server1_1761141869.txt</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>10.175.90.186</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2025-10-22 10:05:28.101</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>2025-10-22 10:12:28.152</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>server1</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>echo last run server 1
+echo i never actually timed out any of them
+echo a
+echo b
+echo c
+echo d
+echo e
+echo f
+echo g
+echo h
+echo i
+echo j
+echo k
+echo l
+echo m
+echo n
+echo o</t>
+        </is>
+      </c>
+      <c r="I8" t="n">
+        <v>7</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>server1_1761143493.txt</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>10.175.90.186</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2025-10-22 10:31:59.651</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>2025-10-22 10:33:04.854</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>server1</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" t="n">
+        <v>5</v>
+      </c>
+      <c r="K9" t="n">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>server1_1761143592.txt</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>10.175.90.186</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2025-10-22 10:34:09.136</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>2025-10-22 10:35:55.434</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>server1</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>sleep 20
+echo hi
+echo sleep 20
+echo that was dumb
+echo im going idle now</t>
+        </is>
+      </c>
+      <c r="I10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" t="n">
+        <v>46</v>
+      </c>
+      <c r="K10" t="n">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>server1_1761143763.txt</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>10.175.90.186</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2025-10-22 10:36:39.130</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>2025-10-22 10:37:45.338</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>server1</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" t="n">
+        <v>6</v>
+      </c>
+      <c r="K11" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>server1_1761143873.txt</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>10.175.90.186</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2025-10-22 10:40:34.133</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>2025-10-22 10:43:26.589</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>server1</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>sleep 30
+echo hi
+sleep 30
+sleep 30
+sleep 30</t>
+        </is>
+      </c>
+      <c r="I12" t="n">
+        <v>2</v>
+      </c>
+      <c r="J12" t="n">
+        <v>52</v>
+      </c>
+      <c r="K12" t="n">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>server1_1761144384.txt</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>10.175.90.186</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>2025-10-22 10:47:28.655</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2025-10-22 10:49:37.018</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>2 minutes and 9 seconds
+server1
+2
+10.175.90.186
+2025-10-22 10:47:28.655
+server1
+1
+-947 minutes and -28 seconds</t>
+        </is>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>server1_1761144858.txt</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>10.175.90.186</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2025-10-22 10:54:49.330</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>2025-10-22 10:56:50.684</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>server1</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="n">
+        <v>2</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1</v>
+      </c>
+      <c r="K14" t="n">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>server1_1761145358.txt</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>10.175.90.186</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2025-10-22 11:03:06.397</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>2025-10-22 11:05:10.742</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>server1</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="n">
+        <v>2</v>
+      </c>
+      <c r="J15" t="n">
+        <v>4</v>
+      </c>
+      <c r="K15" t="n">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>server1_1761145718.txt</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>10.175.90.186</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2025-10-22 11:09:04.949</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>2025-10-22 11:09:08.450</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>server1</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>exit</t>
+        </is>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>4</v>
+      </c>
+      <c r="K16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
           <t>server2_1761141271.txt</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B17" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>10.175.90.186</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>10.175.90.186</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>2025-10-22 09:55:47.598</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>2025-10-22 09:57:47.668</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>server2</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>echo server 2 test
 echo i will be idle</t>
         </is>
       </c>
-      <c r="I8" t="n">
+      <c r="I17" t="n">
         <v>2</v>
       </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
         <v>120</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
+    <row r="18">
+      <c r="A18" t="inlineStr">
         <is>
           <t>server2_1761141475.txt</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B18" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>10.175.90.186</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>10.175.90.186</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>2025-10-22 09:59:34.532</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>2025-10-22 10:03:34.611</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>server2</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>echo im back in server 2
 echo wowee
 echo this is working fr</t>
         </is>
       </c>
-      <c r="I9" t="n">
+      <c r="I18" t="n">
         <v>4</v>
       </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
         <v>240</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>server2_1761141822.txt</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>10.175.90.186</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2025-10-22 10:05:39.173</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>2025-10-22 10:07:39.237</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>server2</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>echo last run server 2</t>
+        </is>
+      </c>
+      <c r="I19" t="n">
+        <v>2</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>server3_1761141271.txt</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>10.175.90.186</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>10.175.90.186</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>2025-10-22 09:56:25.672</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>2025-10-22 09:59:25.736</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>server3</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>ls
 echo server 3 test
@@ -911,53 +1436,53 @@
 echo not yet tho</t>
         </is>
       </c>
-      <c r="I10" t="n">
+      <c r="I20" t="n">
         <v>3</v>
       </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
         <v>180</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
+    <row r="21">
+      <c r="A21" t="inlineStr">
         <is>
           <t>server3_1761141570.txt</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>10.175.90.186</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>10.175.90.186</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>2025-10-22 10:00:01.162</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>2025-10-22 10:00:32.072</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>server3</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>echo server 3 is back too
 echo lol
@@ -966,170 +1491,405 @@
 exit</t>
         </is>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
         <v>31</v>
       </c>
-      <c r="K11" t="n">
+      <c r="K21" t="n">
         <v>31</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
+    <row r="22">
+      <c r="A22" t="inlineStr">
         <is>
           <t>server3_1761141637.txt</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>10.175.90.186</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>10.175.90.186</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>2025-10-22 10:01:34.861</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>2025-10-22 10:03:34.925</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>server3</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>echo this is my third time back in
 echo wow</t>
         </is>
       </c>
-      <c r="I12" t="n">
+      <c r="I22" t="n">
         <v>2</v>
       </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
         <v>120</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>server3_1761141819.txt</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>10.175.90.186</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2025-10-22 10:05:49.963</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>2025-10-22 10:07:50.028</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>server3</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>echo last run server 3</t>
+        </is>
+      </c>
+      <c r="I23" t="n">
+        <v>2</v>
+      </c>
+      <c r="J23" t="n">
+        <v>1</v>
+      </c>
+      <c r="K23" t="n">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>server3_1761152152.txt</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr"/>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2025-10-22 12:59:28.718</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>server3_1761156292.txt</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>10.172.95.111</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2025-10-22 14:05:34.294</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>2025-10-22 14:07:42.641</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>server3</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>ls</t>
+        </is>
+      </c>
+      <c r="I25" t="n">
+        <v>2</v>
+      </c>
+      <c r="J25" t="n">
+        <v>8</v>
+      </c>
+      <c r="K25" t="n">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>server3_1761156668.txt</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>10.172.95.111</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2025-10-22 14:11:50.155</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>2025-10-22 14:12:37.296</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>server3</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>ls
+cat
+cd Schedule_of_Classes
+ls
+exit</t>
+        </is>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>47</v>
+      </c>
+      <c r="K26" t="n">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
         <is>
           <t>server4_1761141271.txt</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B27" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>10.175.90.186</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>10.175.90.186</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>2025-10-22 09:57:07.846</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>2025-10-22 09:59:07.909</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>server4</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>echo server 4 test
 echo i will time out too</t>
         </is>
       </c>
-      <c r="I13" t="n">
+      <c r="I27" t="n">
         <v>2</v>
       </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
         <v>120</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+    <row r="28">
+      <c r="A28" t="inlineStr">
         <is>
           <t>server4_1761141555.txt</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>10.175.90.186</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>10.175.90.186</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>2025-10-22 10:02:07.820</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>2025-10-22 10:05:07.884</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>server4</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>echo second time in server 2
 echo i meant second time in server 4 lol</t>
         </is>
       </c>
-      <c r="I14" t="n">
+      <c r="I28" t="n">
         <v>3</v>
       </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
         <v>180</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>server4_1761141912.txt</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>10.175.90.186</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2025-10-22 10:06:04.589</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>2025-10-22 10:08:04.655</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>server4</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>echo last run server 4</t>
+        </is>
+      </c>
+      <c r="I29" t="n">
+        <v>2</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>120</v>
       </c>
     </row>
   </sheetData>

--- a/honeypot_data_sheets/attacker_reports_20251022.xlsx
+++ b/honeypot_data_sheets/attacker_reports_20251022.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K29"/>
+  <dimension ref="A1:K34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1237,196 +1237,472 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>server1_1761162018.txt</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>10.175.90.186</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2025-10-22 15:41:16.270</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>2025-10-22 15:42:19.595</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>server1</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>ls
+cd G        
+ls
+cat C       
+exit</t>
+        </is>
+      </c>
+      <c r="I17" t="n">
+        <v>1</v>
+      </c>
+      <c r="J17" t="n">
+        <v>3</v>
+      </c>
+      <c r="K17" t="n">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>server1_1761162147.txt</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>10.175.90.186</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2025-10-22 15:43:14.859</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>2025-10-22 15:43:40.717</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>server1</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>ls
+cd Sc       
+ls
+cat 20      2-2     
+exit</t>
+        </is>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>26</v>
+      </c>
+      <c r="K18" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>server1_1761162228.txt</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>10.175.90.186</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2025-10-22 15:44:34.680</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>2025-10-22 15:45:00.498</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>server1</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>ls
+cd S        
+cd S                        c       
+ls
+cat 2025    
+exit</t>
+        </is>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>26</v>
+      </c>
+      <c r="K19" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
           <t>server2_1761141271.txt</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B20" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>10.175.90.186</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>10.175.90.186</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>2025-10-22 09:55:47.598</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>2025-10-22 09:57:47.668</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>server2</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>echo server 2 test
 echo i will be idle</t>
         </is>
       </c>
-      <c r="I17" t="n">
+      <c r="I20" t="n">
         <v>2</v>
       </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
         <v>120</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+    <row r="21">
+      <c r="A21" t="inlineStr">
         <is>
           <t>server2_1761141475.txt</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B21" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>10.175.90.186</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>10.175.90.186</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>2025-10-22 09:59:34.532</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>2025-10-22 10:03:34.611</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>server2</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>echo im back in server 2
 echo wowee
 echo this is working fr</t>
         </is>
       </c>
-      <c r="I18" t="n">
+      <c r="I21" t="n">
         <v>4</v>
       </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="n">
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
         <v>240</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
+    <row r="22">
+      <c r="A22" t="inlineStr">
         <is>
           <t>server2_1761141822.txt</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B22" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>10.175.90.186</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>10.175.90.186</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>2025-10-22 10:05:39.173</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>2025-10-22 10:07:39.237</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>server2</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>echo last run server 2</t>
         </is>
       </c>
-      <c r="I19" t="n">
+      <c r="I22" t="n">
         <v>2</v>
       </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="n">
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
         <v>120</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>server2_1761162018.txt</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>10.175.90.186</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2025-10-22 15:46:32.374</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>2025-10-22 15:46:48.657</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>server2</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>ls
+cd A        
+ls
+date
+exit</t>
+        </is>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>16</v>
+      </c>
+      <c r="K23" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>server2_1761162416.txt</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>10.175.90.186</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2025-10-22 15:47:49.646</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>2025-10-22 15:48:03.516</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>server2</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>ls
+cd G        
+ls
+cat N       
+exit</t>
+        </is>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>14</v>
+      </c>
+      <c r="K24" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>server3_1761141271.txt</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B25" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>10.175.90.186</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>10.175.90.186</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>2025-10-22 09:56:25.672</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>2025-10-22 09:59:25.736</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>server3</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>ls
 echo server 3 test
@@ -1436,53 +1712,53 @@
 echo not yet tho</t>
         </is>
       </c>
-      <c r="I20" t="n">
+      <c r="I25" t="n">
         <v>3</v>
       </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
         <v>180</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
+    <row r="26">
+      <c r="A26" t="inlineStr">
         <is>
           <t>server3_1761141570.txt</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B26" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>10.175.90.186</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>10.175.90.186</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>2025-10-22 10:00:01.162</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>2025-10-22 10:00:32.072</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>server3</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>echo server 3 is back too
 echo lol
@@ -1491,234 +1767,234 @@
 exit</t>
         </is>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="n">
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
         <v>31</v>
       </c>
-      <c r="K21" t="n">
+      <c r="K26" t="n">
         <v>31</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
+    <row r="27">
+      <c r="A27" t="inlineStr">
         <is>
           <t>server3_1761141637.txt</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B27" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>10.175.90.186</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>10.175.90.186</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>2025-10-22 10:01:34.861</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>2025-10-22 10:03:34.925</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>server3</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>echo this is my third time back in
 echo wow</t>
         </is>
       </c>
-      <c r="I22" t="n">
+      <c r="I27" t="n">
         <v>2</v>
       </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
         <v>120</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
+    <row r="28">
+      <c r="A28" t="inlineStr">
         <is>
           <t>server3_1761141819.txt</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B28" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>10.175.90.186</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>10.175.90.186</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>2025-10-22 10:05:49.963</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>2025-10-22 10:07:50.028</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>server3</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>echo last run server 3</t>
         </is>
       </c>
-      <c r="I23" t="n">
+      <c r="I28" t="n">
         <v>2</v>
       </c>
-      <c r="J23" t="n">
+      <c r="J28" t="n">
         <v>1</v>
       </c>
-      <c r="K23" t="n">
+      <c r="K28" t="n">
         <v>121</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
+    <row r="29">
+      <c r="A29" t="inlineStr">
         <is>
           <t>server3_1761152152.txt</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr"/>
-      <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr">
+      <c r="B29" t="inlineStr"/>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr">
         <is>
           <t>2025-10-22 12:59:28.718</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr"/>
-      <c r="H24" t="inlineStr"/>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
         <is>
           <t>server3_1761156292.txt</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B30" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="C30" t="inlineStr">
         <is>
           <t>10.172.95.111</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="D30" t="inlineStr">
         <is>
           <t>2025-10-22 14:05:34.294</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>2025-10-22 14:07:42.641</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>server3</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>ls</t>
         </is>
       </c>
-      <c r="I25" t="n">
+      <c r="I30" t="n">
         <v>2</v>
       </c>
-      <c r="J25" t="n">
+      <c r="J30" t="n">
         <v>8</v>
       </c>
-      <c r="K25" t="n">
+      <c r="K30" t="n">
         <v>128</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
+    <row r="31">
+      <c r="A31" t="inlineStr">
         <is>
           <t>server3_1761156668.txt</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B31" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="C31" t="inlineStr">
         <is>
           <t>10.172.95.111</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="D31" t="inlineStr">
         <is>
           <t>2025-10-22 14:11:50.155</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>2025-10-22 14:12:37.296</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>server3</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>ls
 cat
@@ -1727,168 +2003,168 @@
 exit</t>
         </is>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
         <v>47</v>
       </c>
-      <c r="K26" t="n">
+      <c r="K31" t="n">
         <v>47</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
+    <row r="32">
+      <c r="A32" t="inlineStr">
         <is>
           <t>server4_1761141271.txt</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B32" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>10.175.90.186</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>10.175.90.186</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
         <is>
           <t>2025-10-22 09:57:07.846</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>2025-10-22 09:59:07.909</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>server4</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>echo server 4 test
 echo i will time out too</t>
         </is>
       </c>
-      <c r="I27" t="n">
+      <c r="I32" t="n">
         <v>2</v>
       </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
-      <c r="K27" t="n">
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
         <v>120</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+    <row r="33">
+      <c r="A33" t="inlineStr">
         <is>
           <t>server4_1761141555.txt</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B33" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>10.175.90.186</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>10.175.90.186</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
         <is>
           <t>2025-10-22 10:02:07.820</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>2025-10-22 10:05:07.884</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>server4</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>echo second time in server 2
 echo i meant second time in server 4 lol</t>
         </is>
       </c>
-      <c r="I28" t="n">
+      <c r="I33" t="n">
         <v>3</v>
       </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="n">
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="n">
         <v>180</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
+    <row r="34">
+      <c r="A34" t="inlineStr">
         <is>
           <t>server4_1761141912.txt</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B34" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>10.175.90.186</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>10.175.90.186</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
         <is>
           <t>2025-10-22 10:06:04.589</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>2025-10-22 10:08:04.655</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>server4</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>echo last run server 4</t>
         </is>
       </c>
-      <c r="I29" t="n">
+      <c r="I34" t="n">
         <v>2</v>
       </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
         <v>120</v>
       </c>
     </row>
